--- a/data_example/case.xlsx
+++ b/data_example/case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProject\FutureLoadApiTest36\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A2D387-E2FF-4B83-8AAE-40F897729C17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47480583-09AE-468F-B13A-E0165F2DE56A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="375">
   <si>
     <t>case_id</t>
   </si>
@@ -818,27 +818,15 @@
     <t>/loan/audit</t>
   </si>
   <si>
-    <t>{"loan_id": #loan_id#, "approved_or_not": True}</t>
-  </si>
-  <si>
     <t>管理员审核项目为不通过， 审核项目成功</t>
   </si>
   <si>
-    <t>{"loan_id": #loan_id#, "approved_or_not": False}</t>
-  </si>
-  <si>
-    <t>普通会员审核项目为通过， 审核项目失败</t>
-  </si>
-  <si>
     <t>{"code": 2, "msg": "普通会员不能审核项目，请使用管理员账号"}</t>
   </si>
   <si>
     <t>普通会员审核项目为不通过， 审核项目失败</t>
   </si>
   <si>
-    <t>项目状态为2（竞标中），审核项目失败</t>
-  </si>
-  <si>
     <t>{"code": 2, "msg": "项目不在审核中状态"}</t>
   </si>
   <si>
@@ -854,34 +842,7 @@
     <t>项目id不存在，审核项目失败</t>
   </si>
   <si>
-    <t>{"loan_id": 0, "approved_or_not": True}</t>
-  </si>
-  <si>
     <t>{"code": 2, "msg": "非法的项目id"}</t>
-  </si>
-  <si>
-    <t>项目id为空，审核项目失败</t>
-  </si>
-  <si>
-    <t>{"loan_id": None, "approved_or_not": False}</t>
-  </si>
-  <si>
-    <t>{"code": 1, "msg": "项目id为空"}</t>
-  </si>
-  <si>
-    <t>审核状态为true， 审核项目失败</t>
-  </si>
-  <si>
-    <t>{"loan_id": #loan_id#, "approved_or_not": "true"}</t>
-  </si>
-  <si>
-    <t>{"code": 2, "msg": "approved_or_not只能为True或者False"}</t>
-  </si>
-  <si>
-    <t>审核状态为false， 审核项目失败</t>
-  </si>
-  <si>
-    <t>{"loan_id": #loan_id#, "approved_or_not": "false"}</t>
   </si>
   <si>
     <t>审核状态为数字， 审核项目失败</t>
@@ -1349,6 +1310,35 @@
   </si>
   <si>
     <t>项目可投金额小于用户投资金额，投资失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"loan_id": #loan_id#, "approved_or_not": true}</t>
+  </si>
+  <si>
+    <t>{"loan_id": 0, "approved_or_not": true}</t>
+  </si>
+  <si>
+    <t>{"loan_id": #loan_id#, "approved_or_not": false}</t>
+  </si>
+  <si>
+    <t>{"loan_id": #loan_id#, "approved_or_not": true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"loan_id": #loan_id#, "approved_or_not": false}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通会员审核项目为通过， 审核项目失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目状态为2（竞标中），审核项目失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code": 1, "msg": "approved_or_not只能为true或者false"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1435,7 +1425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1488,6 +1478,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1798,7 +1794,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>4</v>
@@ -1824,7 +1820,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>10</v>
@@ -1850,7 +1846,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>10</v>
@@ -1876,7 +1872,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>10</v>
@@ -1902,7 +1898,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>10</v>
@@ -1928,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>10</v>
@@ -1954,7 +1950,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>10</v>
@@ -1980,7 +1976,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>10</v>
@@ -2006,7 +2002,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>10</v>
@@ -2032,7 +2028,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>10</v>
@@ -2058,7 +2054,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>10</v>
@@ -2084,7 +2080,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>10</v>
@@ -2110,7 +2106,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>10</v>
@@ -2136,7 +2132,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>10</v>
@@ -2162,7 +2158,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>10</v>
@@ -2188,7 +2184,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>10</v>
@@ -2214,7 +2210,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>10</v>
@@ -2240,7 +2236,7 @@
         <v>9</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>10</v>
@@ -2292,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -2309,22 +2305,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>85</v>
@@ -2335,22 +2331,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>85</v>
@@ -2361,25 +2357,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2387,25 +2383,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2488,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -2508,19 +2504,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -2534,19 +2530,19 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -2560,19 +2556,19 @@
         <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F4" t="s">
         <v>189</v>
       </c>
       <c r="G4" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -2586,19 +2582,19 @@
         <v>259</v>
       </c>
       <c r="C5" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="D5" t="s">
         <v>165</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F5" t="s">
         <v>261</v>
       </c>
       <c r="G5" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -2612,19 +2608,19 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="H6" t="s">
         <v>85</v>
@@ -2638,19 +2634,19 @@
         <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -2661,22 +2657,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C8" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F8" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="G8" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -2690,19 +2686,19 @@
         <v>163</v>
       </c>
       <c r="C9" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D9" t="s">
         <v>165</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F9" t="s">
         <v>166</v>
       </c>
       <c r="G9" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -2716,19 +2712,19 @@
         <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F10" t="s">
         <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -2739,22 +2735,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C11" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F11" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G11" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -2768,19 +2764,19 @@
         <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F12" t="s">
         <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
@@ -2791,22 +2787,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C13" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="D13" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F13" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G13" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -2867,7 +2863,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>4</v>
@@ -2896,7 +2892,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>54</v>
@@ -2922,7 +2918,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>54</v>
@@ -2948,7 +2944,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>54</v>
@@ -2974,7 +2970,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>54</v>
@@ -3000,7 +2996,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>54</v>
@@ -3026,7 +3022,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>54</v>
@@ -3052,7 +3048,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>54</v>
@@ -3078,7 +3074,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>54</v>
@@ -3104,7 +3100,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>54</v>
@@ -3130,7 +3126,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>54</v>
@@ -3156,7 +3152,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>54</v>
@@ -3182,7 +3178,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>54</v>
@@ -3252,7 +3248,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>4</v>
@@ -3281,7 +3277,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>83</v>
@@ -3307,7 +3303,7 @@
         <v>82</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>83</v>
@@ -3333,7 +3329,7 @@
         <v>82</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>83</v>
@@ -3359,7 +3355,7 @@
         <v>82</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>83</v>
@@ -3385,7 +3381,7 @@
         <v>82</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>83</v>
@@ -3411,7 +3407,7 @@
         <v>82</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>83</v>
@@ -3437,7 +3433,7 @@
         <v>82</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>83</v>
@@ -3463,7 +3459,7 @@
         <v>82</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>83</v>
@@ -3489,7 +3485,7 @@
         <v>82</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>83</v>
@@ -3515,7 +3511,7 @@
         <v>82</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>83</v>
@@ -3541,7 +3537,7 @@
         <v>82</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>83</v>
@@ -3567,7 +3563,7 @@
         <v>82</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>83</v>
@@ -3593,7 +3589,7 @@
         <v>82</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>83</v>
@@ -3619,7 +3615,7 @@
         <v>82</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>83</v>
@@ -3645,7 +3641,7 @@
         <v>82</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>83</v>
@@ -3671,7 +3667,7 @@
         <v>82</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>83</v>
@@ -3729,7 +3725,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -3758,7 +3754,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>124</v>
@@ -3784,7 +3780,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>124</v>
@@ -3810,7 +3806,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>124</v>
@@ -3836,7 +3832,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>124</v>
@@ -3862,7 +3858,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>124</v>
@@ -3888,7 +3884,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>124</v>
@@ -3914,7 +3910,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>124</v>
@@ -3940,7 +3936,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>124</v>
@@ -3966,7 +3962,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>124</v>
@@ -3992,7 +3988,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>124</v>
@@ -4018,7 +4014,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>124</v>
@@ -4044,7 +4040,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>124</v>
@@ -4070,7 +4066,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>124</v>
@@ -4096,7 +4092,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>124</v>
@@ -4122,7 +4118,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>124</v>
@@ -4148,7 +4144,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>124</v>
@@ -4202,7 +4198,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -4228,7 +4224,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>189</v>
@@ -4254,7 +4250,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>189</v>
@@ -4280,7 +4276,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>189</v>
@@ -4306,7 +4302,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>189</v>
@@ -4332,7 +4328,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>189</v>
@@ -4358,7 +4354,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>189</v>
@@ -4367,7 +4363,7 @@
         <v>200</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4384,7 +4380,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>189</v>
@@ -4410,7 +4406,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>189</v>
@@ -4436,7 +4432,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>189</v>
@@ -4462,7 +4458,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>189</v>
@@ -4488,7 +4484,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>189</v>
@@ -4514,7 +4510,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>189</v>
@@ -4540,7 +4536,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>189</v>
@@ -4566,7 +4562,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>189</v>
@@ -4592,7 +4588,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>189</v>
@@ -4618,7 +4614,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>189</v>
@@ -4644,7 +4640,7 @@
         <v>9</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>189</v>
@@ -4670,7 +4666,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>189</v>
@@ -4696,7 +4692,7 @@
         <v>9</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>189</v>
@@ -4722,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>189</v>
@@ -4748,7 +4744,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>189</v>
@@ -4774,7 +4770,7 @@
         <v>9</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>189</v>
@@ -4800,7 +4796,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>189</v>
@@ -4826,7 +4822,7 @@
         <v>9</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>189</v>
@@ -4852,7 +4848,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>189</v>
@@ -4878,7 +4874,7 @@
         <v>9</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>189</v>
@@ -4904,7 +4900,7 @@
         <v>9</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>189</v>
@@ -4930,7 +4926,7 @@
         <v>9</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>189</v>
@@ -4956,7 +4952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -4985,7 +4981,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>4</v>
@@ -4997,7 +4993,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -5008,25 +5004,25 @@
         <v>52</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -5037,25 +5033,25 @@
         <v>52</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -5066,25 +5062,25 @@
         <v>52</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5095,25 +5091,25 @@
         <v>187</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5124,19 +5120,19 @@
         <v>259</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>165</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>261</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>12</v>
@@ -5147,22 +5143,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>12</v>
@@ -5174,25 +5170,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="I8" s="10"/>
     </row>
@@ -5201,25 +5197,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="I9" s="10"/>
     </row>
@@ -5228,25 +5224,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="I10" s="10"/>
     </row>
@@ -5255,25 +5251,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="I11" s="10"/>
     </row>
@@ -5282,25 +5278,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="I12" s="6"/>
     </row>
@@ -5309,25 +5305,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="I13" s="10"/>
     </row>
@@ -5336,25 +5332,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="I14" s="10"/>
     </row>
@@ -5370,10 +5366,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5401,8 +5397,8 @@
       <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>363</v>
+      <c r="E1" s="22" t="s">
+        <v>350</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>4</v>
@@ -5427,14 +5423,14 @@
       <c r="D2" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>364</v>
+      <c r="E2" s="23" t="s">
+        <v>359</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>261</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>85</v>
@@ -5448,19 +5444,19 @@
         <v>259</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>364</v>
+      <c r="E3" s="23" t="s">
+        <v>359</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>261</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>264</v>
+        <v>371</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>85</v>
@@ -5474,22 +5470,22 @@
         <v>259</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>372</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>364</v>
+      <c r="E4" s="23" t="s">
+        <v>359</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>261</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>262</v>
+        <v>367</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5500,22 +5496,22 @@
         <v>259</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>364</v>
+      <c r="E5" s="23" t="s">
+        <v>359</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>261</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>264</v>
+        <v>369</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5526,22 +5522,22 @@
         <v>259</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>268</v>
+        <v>373</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>364</v>
+      <c r="E6" s="23" t="s">
+        <v>359</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>261</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>262</v>
+        <v>367</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5552,22 +5548,22 @@
         <v>259</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>364</v>
+      <c r="E7" s="23" t="s">
+        <v>359</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>261</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>264</v>
+        <v>369</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5578,22 +5574,22 @@
         <v>259</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>364</v>
+      <c r="E8" s="23" t="s">
+        <v>359</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>261</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>262</v>
+        <v>367</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5604,22 +5600,22 @@
         <v>259</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>364</v>
+      <c r="E9" s="23" t="s">
+        <v>359</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>261</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>264</v>
+        <v>369</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5630,22 +5626,22 @@
         <v>259</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>364</v>
+      <c r="E10" s="23" t="s">
+        <v>359</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>261</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>274</v>
+        <v>368</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5656,113 +5652,23 @@
         <v>259</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>364</v>
+      <c r="E11" s="23" t="s">
+        <v>359</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>261</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="9"/>
+        <v>374</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5770,6 +5676,7 @@
     <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5804,7 +5711,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -5821,22 +5728,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>85</v>
@@ -5847,22 +5754,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>85</v>
@@ -5873,22 +5780,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>85</v>
@@ -5899,22 +5806,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>85</v>
@@ -5925,25 +5832,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
@@ -5951,25 +5858,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -6041,7 +5948,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -6073,7 +5980,7 @@
         <v>165</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>166</v>
@@ -6105,7 +6012,7 @@
         <v>165</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>166</v>
@@ -6137,7 +6044,7 @@
         <v>165</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>166</v>
@@ -6169,7 +6076,7 @@
         <v>165</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>166</v>
@@ -6199,7 +6106,7 @@
         <v>165</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>166</v>
@@ -6229,7 +6136,7 @@
         <v>165</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>166</v>

--- a/data_example/case.xlsx
+++ b/data_example/case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProject\FutureLoadApiTest36\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47480583-09AE-468F-B13A-E0165F2DE56A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0DCA62-45CC-4523-86AA-3D011792EAAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="348">
   <si>
     <t>case_id</t>
   </si>
@@ -80,27 +80,15 @@
     <t>默认普通会员注册成功</t>
   </si>
   <si>
-    <t>{"mobile_phone": "#new_phone#","pwd": "12dfgdfg!##$%",  "type": None, "reg_name":  "花儿"}</t>
-  </si>
-  <si>
     <t>小柠檬普通会员注册成功</t>
   </si>
   <si>
-    <t>{"mobile_phone": "#new_phone#","pwd": "!@3435fdg", "type": None, "reg_name":  None}</t>
-  </si>
-  <si>
     <t>小柠檬管理员注册成功</t>
   </si>
   <si>
-    <t>{"mobile_phone": "#new_phone#","pwd": "@$?&gt;&lt;@#$*()", "type":  0, "reg_name":  None}</t>
-  </si>
-  <si>
     <t>密码包含空格注册成功</t>
   </si>
   <si>
-    <t>{"mobile_phone": "#new_phone#","pwd": "  @$?&gt;&lt;@#$*()", "type":  0, "reg_name":  None}</t>
-  </si>
-  <si>
     <t>昵称包含空格注册成功</t>
   </si>
   <si>
@@ -125,9 +113,6 @@
     <t>手机号码为空，注册失败</t>
   </si>
   <si>
-    <t>{"mobile_phone":  None, "pwd": "00025678", "type":  1, "reg_name":  "flora002"}</t>
-  </si>
-  <si>
     <t>{"code":1,"msg":"手机号为空"}</t>
   </si>
   <si>
@@ -155,9 +140,6 @@
     <t>密码为空，注册失败</t>
   </si>
   <si>
-    <t>{"mobile_phone": "#new_phone#","pwd": None, "type":  0, "reg_name":  "flora004"}</t>
-  </si>
-  <si>
     <t>{"code":1,"msg":"密码为空"}</t>
   </si>
   <si>
@@ -203,30 +185,18 @@
     <t>正确手机号和密码登录成功（普通会员登录）</t>
   </si>
   <si>
-    <t>{"mobile_phone": "#user_phone#", "pwd": "#user_pwd#"}</t>
-  </si>
-  <si>
     <t>手机号为空，登录失败</t>
   </si>
   <si>
-    <t>{"mobile_phone": None, "pwd": "12dfgdfg!##$%"}</t>
-  </si>
-  <si>
     <t>{"code":1,"msg":"手机号码为空"}</t>
   </si>
   <si>
     <t>密码为空，登录失败</t>
   </si>
   <si>
-    <t>{"mobile_phone": "#user_phone#", "pwd": None}</t>
-  </si>
-  <si>
     <t>手机号码和密码均为空，登录失败</t>
   </si>
   <si>
-    <t>{"mobile_phone": None, "pwd": None}</t>
-  </si>
-  <si>
     <t>手机号错误，登录失败</t>
   </si>
   <si>
@@ -239,9 +209,6 @@
     <t>密码错误，登录失败</t>
   </si>
   <si>
-    <t>{"mobile_phone": "#user_phone#", "pwd": "12345678900"}</t>
-  </si>
-  <si>
     <t>手机号和密码错误，登录失败</t>
   </si>
   <si>
@@ -251,153 +218,33 @@
     <t>手机号码正确但是前面有空格，登录失败</t>
   </si>
   <si>
-    <t>{"mobile_phone": " #user_phone#", "pwd": "00005678"}</t>
-  </si>
-  <si>
     <t>手机号码正确但是后面有空格，登录失败</t>
   </si>
   <si>
-    <t>{"mobile_phone": "#user_phone# ", "pwd": "00005678"}</t>
-  </si>
-  <si>
     <t>密码正确但是前面有空格，登录失败</t>
   </si>
   <si>
-    <t>{"mobile_phone": "#user_phone#", "pwd": " 00005678"}</t>
-  </si>
-  <si>
     <t>密码正确但是后面有空格，登录失败</t>
   </si>
   <si>
-    <t>{"mobile_phone": "#user_phone#", "pwd": "00005678 "}</t>
-  </si>
-  <si>
     <t>recharge</t>
   </si>
   <si>
-    <t>充值金额为500000，充值成功</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
     <t>/member/recharge</t>
   </si>
   <si>
-    <t>{"member_id": "#user_member_id#", "amount": 500000}</t>
-  </si>
-  <si>
     <t>{"code": 0, "msg": "OK"}</t>
   </si>
   <si>
-    <t>充值金额为499999，充值成功</t>
-  </si>
-  <si>
-    <t>{"member_id": "#user_member_id#", "amount": 499999}</t>
-  </si>
-  <si>
-    <t>充值金额为1，充值成功</t>
-  </si>
-  <si>
-    <t>{"member_id": "#user_member_id#", "amount": 1}</t>
-  </si>
-  <si>
-    <t>充值金额为1.12，充值成功</t>
-  </si>
-  <si>
-    <t>{"member_id": "#user_member_id#", "amount": 1.12}</t>
-  </si>
-  <si>
-    <t>充值金额为499999.99，充值成功</t>
-  </si>
-  <si>
-    <t>{"member_id": "#user_member_id#", "amount": 499999.99}</t>
-  </si>
-  <si>
-    <t>充值金额为500000.00，充值成功</t>
-  </si>
-  <si>
-    <t>{"member_id": "#user_member_id#", "amount": 500000.00}</t>
-  </si>
-  <si>
-    <t>会员id为空，充值金额正确，充值失败</t>
-  </si>
-  <si>
     <t>{"member_id": "", "amount": 20}</t>
   </si>
   <si>
-    <t>{"code": 2, "msg": "用户id为空"}</t>
-  </si>
-  <si>
-    <t>会员id正确，充值金额为空，充值失败</t>
-  </si>
-  <si>
-    <t>{"member_id": "#user_member_id#", "amount": None}</t>
-  </si>
-  <si>
-    <t>{"code": 2, "msg": "充值金额为空"}</t>
-  </si>
-  <si>
     <t>会员id错误，充值失败</t>
   </si>
   <si>
-    <t>{"member_id": "#wrong_member_id#", "amount": "20"}</t>
-  </si>
-  <si>
-    <t>{"code": 1001, "msg": "账户信息错误"}</t>
-  </si>
-  <si>
-    <t>会员id正确，充值金额为负整数，充值失败</t>
-  </si>
-  <si>
-    <t>{"member_id": "#user_member_id#", "amount": -20}</t>
-  </si>
-  <si>
-    <t>{"code": 2, "msg": "金额必须大于0并且小于或者等于500000"}</t>
-  </si>
-  <si>
-    <t>会员id正确，充值金额为负小数，充值失败</t>
-  </si>
-  <si>
-    <t>{"member_id": "#user_member_id#", "amount": -12.2}</t>
-  </si>
-  <si>
-    <t>会员id和充值金额为0，充值失败</t>
-  </si>
-  <si>
-    <t>{"member_id": "#user_member_id#", "amount": 0}</t>
-  </si>
-  <si>
-    <t>会员id正确，充值金额大于50W，充值失败</t>
-  </si>
-  <si>
-    <t>{"member_id": "#user_member_id#", "amount": 500001}</t>
-  </si>
-  <si>
-    <t>会员id正确，充值金额为0~50万之间的小数，有3位小数，充值失败</t>
-  </si>
-  <si>
-    <t>{"member_id": "#user_member_id#", "amount": 100.123}</t>
-  </si>
-  <si>
-    <t>{"code": 2, "msg": "金额小数超过两位"}</t>
-  </si>
-  <si>
-    <t>会员id正确，充值金额为非数字（字母），充值失败</t>
-  </si>
-  <si>
-    <t>{"member_id": "#user_member_id#", "amount": "a"}</t>
-  </si>
-  <si>
-    <t>{"code": 2, "msg": "数字格式化异常"}</t>
-  </si>
-  <si>
-    <t>会员id正确，充值金额为非数字（特殊字符），充值失败</t>
-  </si>
-  <si>
-    <t>{"member_id": "#user_member_id#", "amount": "$"}</t>
-  </si>
-  <si>
     <t>withdraw</t>
   </si>
   <si>
@@ -407,120 +254,54 @@
     <t>/member/withdraw</t>
   </si>
   <si>
-    <t>{"member_id": "#user_member_id#", "amount":0}</t>
-  </si>
-  <si>
     <t>会员id正确，提现金额为500000且小于用户可用余额， 提现成功</t>
   </si>
   <si>
-    <t>{"member_id": "#user_member_id#", "amount":500000}</t>
-  </si>
-  <si>
     <t>会员id正确，提现金额为499999且小于用户可用余额， 提现成功</t>
   </si>
   <si>
-    <t>{"member_id": "#user_member_id#", "amount":499999}</t>
-  </si>
-  <si>
     <t>会员id正确，提现金额为500000.00且小于用户可用余额， 提现成功</t>
   </si>
   <si>
-    <t>{"member_id": "#user_member_id#", "amount":500000.00}</t>
-  </si>
-  <si>
     <t>会员id正确，提现金额为499999.99且小于用户可用余额， 提现成功</t>
   </si>
   <si>
-    <t>{"member_id": "#user_member_id#", "amount":499999.99}</t>
-  </si>
-  <si>
     <t>会员id正确，提现金额为500且小于用户可用余额， 提现成功</t>
   </si>
   <si>
-    <t>{"member_id": "#user_member_id#", "amount":500}</t>
-  </si>
-  <si>
     <t>会员id正确，提现金额为501.12且小于用户可用余额， 提现成功</t>
   </si>
   <si>
-    <t>{"member_id": "#user_member_id#", "amount":501.12}</t>
-  </si>
-  <si>
     <t>会员id正确，提现金额为1000， 等于用户可用余额，提现成功</t>
   </si>
   <si>
-    <t>{"member_id": "#user_member_id#", "amount":1000}</t>
-  </si>
-  <si>
     <t>会员id为空，提现金额符合要求， 提现失败</t>
   </si>
   <si>
     <t>{"member_id": "",  "amount":501.13}</t>
   </si>
   <si>
-    <t>{"code": 1, "msg": "会员id为空"}</t>
-  </si>
-  <si>
     <t>会员id正确，提现金额为空，提现失败</t>
   </si>
   <si>
-    <t>{"member_id": "#user_member_id#", "amount": ""}</t>
-  </si>
-  <si>
-    <t>{"code": 1, "msg": "取现金额为空"}</t>
-  </si>
-  <si>
     <t>会员id正确，提现金额为900， 大于用户可用余额，提现失败</t>
   </si>
   <si>
-    <t>{"member_id": "#user_member_id#", "amount":900}</t>
-  </si>
-  <si>
-    <t>{"code": 1002, "msg": "余额不足"}</t>
-  </si>
-  <si>
     <t>会员id正确，提现金额负整数，提现失败</t>
   </si>
   <si>
-    <t>{"member_id": "#user_member_id#", "amount":-901}</t>
-  </si>
-  <si>
-    <t>{"code": 2, "msg": "取现金额必须大于0并且小于或者等于5000000"}</t>
-  </si>
-  <si>
     <t>会员id正确，提现金额非数字，提现失败</t>
   </si>
   <si>
-    <t>{"member_id": "#user_member_id#", "amount":"s"}</t>
-  </si>
-  <si>
-    <t>{"code": 2, "msg": "数值参数格式不正确"}</t>
-  </si>
-  <si>
     <t>会员id正确，提现金额负小数，提现失败</t>
   </si>
   <si>
-    <t>{"member_id": "#user_member_id#", "amount": -902.1}</t>
-  </si>
-  <si>
     <t>会员id正确，提现金额超2位小数的正数，提现失败</t>
   </si>
   <si>
-    <t>{"member_id": "#user_member_id#", "amount":903.123}</t>
-  </si>
-  <si>
-    <t>{"code": 2, "msg": "取现金额小数超过两位"}</t>
-  </si>
-  <si>
     <t>会员id正确，提现金额大于50W，提现失败</t>
   </si>
   <si>
-    <t>{"member_id": "#user_member_id#", "amount":500001}</t>
-  </si>
-  <si>
-    <t>check_sql</t>
-  </si>
-  <si>
     <t>update</t>
   </si>
   <si>
@@ -533,66 +314,12 @@
     <t>/member/update</t>
   </si>
   <si>
-    <t>{'member_id': #user_member_id#, 'reg_name': 'A'}</t>
-  </si>
-  <si>
-    <t>{'code': 0, 'msg': 'OK'}</t>
-  </si>
-  <si>
-    <t>select * from futureloan.member where id=#user_member_id#</t>
-  </si>
-  <si>
-    <t>Passed(04-15-2020 14_35_30)</t>
-  </si>
-  <si>
-    <t>普通会员修改昵称， 昵称长度为10，修改昵称成功</t>
-  </si>
-  <si>
-    <t>{'member_id': #user_member_id#, 'reg_name': '我是一只小小鸟飞不高'}</t>
-  </si>
-  <si>
-    <t>Failed(04-15-2020 14_35_30)</t>
-  </si>
-  <si>
-    <t>管理员修改昵称， 昵称长度为5，修改昵称成功</t>
-  </si>
-  <si>
-    <t>{'member_id': #admin_member_id#, 'reg_name': 'flora'}</t>
-  </si>
-  <si>
-    <t>select * from futureloan.member where id=#admin_member_id#</t>
-  </si>
-  <si>
-    <t>会员id为空，修改昵称失败</t>
-  </si>
-  <si>
-    <t>{'member_id': None, 'reg_name': 'A' }</t>
-  </si>
-  <si>
-    <t>{'code': 1, 'msg': '用户id为空'}</t>
-  </si>
-  <si>
-    <t>Passed(04-15-2020 14_35_31)</t>
-  </si>
-  <si>
     <t>修改昵称为空，修改昵称失败</t>
   </si>
   <si>
-    <t>{'member_id': #user_member_id#, 'reg_name': None }</t>
-  </si>
-  <si>
-    <t>{'code': 1, 'msg': '用户名为空'}</t>
-  </si>
-  <si>
     <t>修改昵称长度大于10， 修改昵称失败</t>
   </si>
   <si>
-    <t>{'member_id': #user_member_id#, 'reg_name': '我是一只小小鸟飞也飞！' }</t>
-  </si>
-  <si>
-    <t>{'code': 2, 'msg': '用户昵称长度超过10位'}</t>
-  </si>
-  <si>
     <t>add</t>
   </si>
   <si>
@@ -602,213 +329,81 @@
     <t>/loan/add</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 18.0, "loan_term": 6, "loan_date_type": 1, "bidding_days": 5}</t>
-  </si>
-  <si>
     <t>普通会员新增项目成功， 借款期限单位为按天</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 18.0, "loan_term": 30, "loan_date_type": 1, "bidding_days": 2}</t>
-  </si>
-  <si>
     <t>普通会员新增项目成功， 年利率为24%</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 24.0, "loan_term": 30, "loan_date_type": 2, "bidding_days": 5}</t>
-  </si>
-  <si>
     <t>普通会员新增项目成功，竞标天数为1天</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 12.0, "loan_term": 6, "loan_date_type": 1, "bidding_days": 1}</t>
-  </si>
-  <si>
     <t>普通会员新增项目成功，竞标天数为10天</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 24.0, "loan_term": 30, "loan_date_type": 2, "bidding_days": 10}</t>
-  </si>
-  <si>
     <t>用户id为空，新增项目失败</t>
   </si>
   <si>
     <t>{"member_id": "", "title": "flora借款项目", "amount": 120000, "loan_rate": 18.0, "loan_term": 6, "loan_date_type": 1, "bidding_days": 5}</t>
   </si>
   <si>
-    <t>{"code": 2, "msg": "格式错误"}</t>
-  </si>
-  <si>
-    <t>项目标题长度大于50， 新增项目失败</t>
-  </si>
-  <si>
-    <t>{"member_id": #user_member_id#, "title": "新增项目一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七", "amount": 120000, "loan_rate": 18.0, "loan_term": 6, "loan_date_type": 1, "bidding_days": 5}</t>
-  </si>
-  <si>
-    <t>{"code": 2, "msg": "项目标题长度大于50"}</t>
-  </si>
-  <si>
     <t>项目标题为空，新增项目失败</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "", "amount": 120000, "loan_rate": 18.0, "loan_term": 30, "loan_date_type": 1, "bidding_days": 2}</t>
-  </si>
-  <si>
-    <t>{"code": 1, "msg": "标题为空"}</t>
-  </si>
-  <si>
     <t>借款金额为负数，新增项目失败</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": -100, "loan_rate": 18.0, "loan_term": 6, "loan_date_type": 1, "bidding_days": 5}</t>
-  </si>
-  <si>
-    <t>{"code": 2, "msg": "借款金额范围错误"}</t>
-  </si>
-  <si>
     <t>借款金额为空，新增项目失败</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": "", "loan_rate": 18.0, "loan_term": 6, "loan_date_type": 1, "bidding_days": 5}</t>
-  </si>
-  <si>
-    <t>{"code": 1, "msg": "借款金额为空"}</t>
-  </si>
-  <si>
-    <t>借款金额大于1000000000000000000， 新增项目失败</t>
-  </si>
-  <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 1000000000000000000, "loan_rate": 18.0, "loan_term": 6, "loan_date_type": 1, "bidding_days": 5}</t>
-  </si>
-  <si>
     <t>年利率小于0，新增项目失败</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": -1.0, "loan_term": 6, "loan_date_type": 1, "bidding_days": 5}</t>
-  </si>
-  <si>
-    <t>{"code": 2, "msg": "借款利率范围错误"}</t>
-  </si>
-  <si>
     <t>年利率为0， 新增项目失败</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 12000, "loan_rate": 0.0, "loan_term": 6, "loan_date_type": 1, "bidding_days": 5}</t>
-  </si>
-  <si>
     <t>年利率大于24%，新增项目失败</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 24.1, "loan_term": 30, "loan_date_type": 1, "bidding_days": 2}</t>
-  </si>
-  <si>
     <t>年利率为空，新增项目失败</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": "", "loan_term": 6, "loan_date_type": 1, "bidding_days": 5}</t>
-  </si>
-  <si>
-    <t>{"code": 1, "msg": "利率为空"}</t>
-  </si>
-  <si>
     <t>借款期限类型为非1， 2数字，新增项目失败</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 20.0, "loan_term": 30, "loan_date_type": 3, "bidding_days": 2}</t>
-  </si>
-  <si>
-    <t>{"code": 2, "msg": "借款类型不存在"}</t>
-  </si>
-  <si>
-    <t>借款期限类型为非数字，新增项目失败</t>
-  </si>
-  <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 20.0, "loan_term": 30, "loan_date_type": "A", "bidding_days": 2}</t>
-  </si>
-  <si>
     <t>借款期限类型为空，新增项目失败</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 15, "loan_term": 6, "loan_date_type": "", "bidding_days": 5}</t>
-  </si>
-  <si>
-    <t>{"code": 1, "msg": "借款日期类型为空"}</t>
-  </si>
-  <si>
     <t>借款期限类型为按月，借款期限为负数，新增项目失败</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 15, "loan_term": -1, "loan_date_type": 1, "bidding_days": 5}</t>
-  </si>
-  <si>
-    <t>{"code": 2, "msg": "借款期限单位为月的项目,期限范围为1到36个月(包含1个月和36个月)"}</t>
-  </si>
-  <si>
     <t>借款期限类型为按月，借款期限大于36月，新增项目失败</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 15, "loan_term": 37, "loan_date_type": 1, "bidding_days": 5}</t>
-  </si>
-  <si>
     <t>借款期限类型为按天，借款期限为负数，新增项目失败</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 15, "loan_term": -1, "loan_date_type": 2, "bidding_days": 5}</t>
-  </si>
-  <si>
-    <t>{"code": 2, "msg": "借款期限单位为天的项目,期限范围为10到45天(包含10天和45天)"}</t>
-  </si>
-  <si>
     <t>借款期限类型为按天，借款期限大于45天，新增项目失败</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 11, "loan_term": 46, "loan_date_type": 2, "bidding_days": 5}</t>
-  </si>
-  <si>
     <t>借款期限类型为按天，借款期限为小数，新增项目失败</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 8, "loan_term": 2.2, "loan_date_type": 2, "bidding_days": 5}</t>
-  </si>
-  <si>
     <t>借款期限类型为按月，借款期限为空，新增项目失败</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 5, "loan_term": "", "loan_date_type": 1, "bidding_days": 5}</t>
-  </si>
-  <si>
-    <t>{"code": 1, "msg": "借款期限为空"}</t>
-  </si>
-  <si>
     <t>借款期限类型为按天，借款期限为空，新增项目失败</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 7, "loan_term": "", "loan_date_type": 2, "bidding_days": 5}</t>
-  </si>
-  <si>
     <t>竞标天数小于1， 新增项目失败</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 18.0, "loan_term": 6, "loan_date_type": 1, "bidding_days": 0}</t>
-  </si>
-  <si>
-    <t>{"code": 2, "msg": "竞标期限为1-10天"}</t>
-  </si>
-  <si>
     <t>竞标天数大于10， 新增项目失败</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 18.0, "loan_term": 30, "loan_date_type": 1, "bidding_days": 11}</t>
-  </si>
-  <si>
     <t>竞标天数为空， 新增项目失败</t>
   </si>
   <si>
-    <t>{"member_id": #user_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 18.0, "loan_term": 30, "loan_date_type": 1, "bidding_days": ""}</t>
-  </si>
-  <si>
-    <t>{"code": 1, "msg": "竞标期限为空"}</t>
-  </si>
-  <si>
     <t>audit</t>
   </si>
   <si>
@@ -821,15 +416,9 @@
     <t>管理员审核项目为不通过， 审核项目成功</t>
   </si>
   <si>
-    <t>{"code": 2, "msg": "普通会员不能审核项目，请使用管理员账号"}</t>
-  </si>
-  <si>
     <t>普通会员审核项目为不通过， 审核项目失败</t>
   </si>
   <si>
-    <t>{"code": 2, "msg": "项目不在审核中状态"}</t>
-  </si>
-  <si>
     <t>项目状态为5（审核不通过），审核项目失败</t>
   </si>
   <si>
@@ -842,9 +431,6 @@
     <t>项目id不存在，审核项目失败</t>
   </si>
   <si>
-    <t>{"code": 2, "msg": "非法的项目id"}</t>
-  </si>
-  <si>
     <t>审核状态为数字， 审核项目失败</t>
   </si>
   <si>
@@ -884,54 +470,18 @@
     <t>{"pageIndex": 1, "pageSize": 20}</t>
   </si>
   <si>
-    <t>页数为非数字，获取项目列表失败</t>
-  </si>
-  <si>
-    <t>{"pageIndex": "A", "pageSize": 21}</t>
-  </si>
-  <si>
-    <t>{"code": 2, "msg": "参数错误"}</t>
-  </si>
-  <si>
-    <t>条数为非数字，获取项目列表失败</t>
-  </si>
-  <si>
-    <t>{"pageIndex": 1, "pageSize": "A"}</t>
-  </si>
-  <si>
     <t>info</t>
   </si>
   <si>
     <t>管理员获取用户信息成功</t>
   </si>
   <si>
-    <t>/member/#admin_member_id#/info</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
     <t>普通会员获取用户信息成功</t>
   </si>
   <si>
-    <t>/member/#user_member_id#/info</t>
-  </si>
-  <si>
-    <t>会员id不存在，获取用户信息失败</t>
-  </si>
-  <si>
-    <t>/member/A/info</t>
-  </si>
-  <si>
-    <t>{"code": 1004, "msg": "URL错误"}</t>
-  </si>
-  <si>
-    <t>会员id为空，获取用户信息失败</t>
-  </si>
-  <si>
-    <t>/member//info</t>
-  </si>
-  <si>
     <t>借款人加标</t>
   </si>
   <si>
@@ -1041,9 +591,6 @@
   </si>
   <si>
     <t>{"pageIndex":1,"pageSize":20}</t>
-  </si>
-  <si>
-    <t>{"code": 1, "msg": "用户id为空"}</t>
   </si>
   <si>
     <t>extractor</t>
@@ -1271,9 +818,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"member_id":#investor_member_id#, "loan_id":#loan_id#,"amount": 300}</t>
-  </si>
-  <si>
     <t>{"member_id": #investor_member_id#, "loan_id": #loan_id#, "amount": 50000}</t>
   </si>
   <si>
@@ -1338,7 +882,594 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"code": 1, "msg": "approved_or_not只能为true或者false"}</t>
+    <t>{"member_id":#investor_member_id#, "loan_id":#loan_id#,"amount": 300}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员修改昵称， 昵称长度为5，修改昵称成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "reg_name": "我是一只小小鸟飞也飞！" }</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "reg_name": "" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id": #admin_member_id#, "reg_name": "Abnmd"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/member/#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>investor_member_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#/info</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/#admin_member_id#/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile_phone": "#new_phone#","pwd": "12dfgdfg!##$%",  "type": "", "reg_name":  "花儿"}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "#new_phone#","pwd": "!@3435fdg", "type": "", "reg_name":  ""}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "#new_phone#","pwd": "@$?&gt;&lt;@#$*()", "type":  0, "reg_name":  ""}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "#new_phone#","pwd": "  @$?&gt;&lt;@#$*()", "type":  0, "reg_name":  ""}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":  "", "pwd": "00025678", "type":  1, "reg_name":  "flora002"}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "#new_phone#","pwd": "", "type":  0, "reg_name":  "flora004"}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "#investor_phone#", "pwd": "12345678900"}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "#investor_phone#", "pwd": ""}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "", "pwd": ""}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "#investor_phone#", "pwd": "#investor_pwd#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile_phone": " #investor_phone#", "pwd": "#investor_pwd#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"mobile_phone": "#investor_phone# ", "pwd": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#investor_pwd#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{"mobile_phone": "#investor_phone#", "pwd": " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#investor_pwd#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"mobile_phone": "#investor_phone#", "pwd": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#investor_pwd#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile_phone": "", "pwd": "12dfgdfg!$%"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$..code": 0, "$..msg": "OK"}</t>
+  </si>
+  <si>
+    <t>{"$..code": 0, "$..msg": "OK"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$..code": 1, "$..msg": "用户id为空"}</t>
+  </si>
+  <si>
+    <t>{"$..code": 2, "$..msg": "用户昵称长度超过10位"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$..code": 1, "$..msg": "用户名不能为空字符串，也不能全部是空格"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "reg_name": "flora"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>普通会员修改昵称， 昵称长度为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，修改昵称成功</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$..code": 1, "$..msg": "标题为空"}</t>
+  </si>
+  <si>
+    <t>{"$..code": 2, "$..msg": "借款金额范围错误"}</t>
+  </si>
+  <si>
+    <t>{"$..code": 1, "$..msg": "借款金额为空"}</t>
+  </si>
+  <si>
+    <t>{"$..code": 2, "$..msg": "借款利率范围错误"}</t>
+  </si>
+  <si>
+    <t>{"$..code": 1, "$..msg": "利率为空"}</t>
+  </si>
+  <si>
+    <t>{"$..code": 2, "$..msg": "借款类型不存在"}</t>
+  </si>
+  <si>
+    <t>{"$..code": 1, "$..msg": "借款日期类型为空"}</t>
+  </si>
+  <si>
+    <t>{"$..code": 2, "$..msg": "借款期限单位为月的项目,期限范围为1到36个月(包含1个月和36个月)"}</t>
+  </si>
+  <si>
+    <t>{"$..code": 2, "$..msg": "借款期限单位为天的项目,期限范围为10到45天(包含10天和45天)"}</t>
+  </si>
+  <si>
+    <t>{"$..code": 1, "$..msg": "借款期限为空"}</t>
+  </si>
+  <si>
+    <t>{"$..code": 2, "$..msg": "竞标期限为1-10天"}</t>
+  </si>
+  <si>
+    <t>{"$..code": 1, "$..msg": "竞标期限为空"}</t>
+  </si>
+  <si>
+    <t>{ "X-Lemonban-Media-Type": "lemonban.v2","Content - Type": "application/json", "Authorization": "#investor_token#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 18.0, "loan_term": 6, "loan_date_type": 1, "bidding_days": 5}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 18.0, "loan_term": 30, "loan_date_type": 1, "bidding_days": 2}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 24.0, "loan_term": 30, "loan_date_type": 2, "bidding_days": 5}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 12.0, "loan_term": 6, "loan_date_type": 1, "bidding_days": 1}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 24.0, "loan_term": 30, "loan_date_type": 2, "bidding_days": 10}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "", "amount": 120000, "loan_rate": 18.0, "loan_term": 30, "loan_date_type": 1, "bidding_days": 2}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": -100, "loan_rate": 18.0, "loan_term": 6, "loan_date_type": 1, "bidding_days": 5}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": "", "loan_rate": 18.0, "loan_term": 6, "loan_date_type": 1, "bidding_days": 5}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": -1.0, "loan_term": 6, "loan_date_type": 1, "bidding_days": 5}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 12000, "loan_rate": 0.0, "loan_term": 6, "loan_date_type": 1, "bidding_days": 5}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 24.1, "loan_term": 30, "loan_date_type": 1, "bidding_days": 2}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": "", "loan_term": 6, "loan_date_type": 1, "bidding_days": 5}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 20.0, "loan_term": 30, "loan_date_type": 3, "bidding_days": 2}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 15, "loan_term": 6, "loan_date_type": "", "bidding_days": 5}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 15, "loan_term": -1, "loan_date_type": 1, "bidding_days": 5}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 15, "loan_term": 37, "loan_date_type": 1, "bidding_days": 5}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 15, "loan_term": -1, "loan_date_type": 2, "bidding_days": 5}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 11, "loan_term": 46, "loan_date_type": 2, "bidding_days": 5}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 8, "loan_term": 2.2, "loan_date_type": 2, "bidding_days": 5}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 5, "loan_term": "", "loan_date_type": 1, "bidding_days": 5}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 7, "loan_term": "", "loan_date_type": 2, "bidding_days": 5}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 18.0, "loan_term": 6, "loan_date_type": 1, "bidding_days": 0}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 18.0, "loan_term": 30, "loan_date_type": 1, "bidding_days": 11}</t>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "title": "flora借款项目", "amount": 120000, "loan_rate": 18.0, "loan_term": 30, "loan_date_type": 1, "bidding_days": ""}</t>
+  </si>
+  <si>
+    <t>{ "X-Lemonban-Media-Type": "lemonban.v2","Content - Type": "application/json", "Authorization": "#admin_token#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id": #investor_member_id#, "reg_name": "A"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$..code": 2, "$..msg": "普通会员不能审核项目，请使用管理员账号"}</t>
+  </si>
+  <si>
+    <t>{"$..code": 2, "$..msg": "项目不在审核中状态"}</t>
+  </si>
+  <si>
+    <t>{"$..code": 2, "$..msg": "非法的项目id"}</t>
+  </si>
+  <si>
+    <t>{"$..code": 1, "$..msg": "approved_or_not只能为true或者false"}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount":0}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount":500000}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount":499999}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount":500000.00}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount":499999.99}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount":500}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount":501.12}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount":1000}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount": ""}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount":900}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount":-901}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount":"s"}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount": -902.1}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount":903.123}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount":500001}</t>
+  </si>
+  <si>
+    <t>{"$..code": 1, "$..msg": "会员id为空"}</t>
+  </si>
+  <si>
+    <t>{"$..code": 1002, "$..msg": "余额不足"}</t>
+  </si>
+  <si>
+    <t>{"$..code": 2, "$..msg": "数值参数格式不正确"}</t>
+  </si>
+  <si>
+    <t>{"$..code": 1, "$..msg": "余额为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$..code": 2, "$..msg": "余额必须大于0并且小于或者等于5000000"}</t>
+  </si>
+  <si>
+    <t>{"$..code": 2, "$..msg": "余额小数超过两位"}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount": 1}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount": 1.12}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount": 499999.99}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount": 500000.00}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount": -20}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount": -12.2}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount": 500001}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount": 100.123}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount": "a"}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount": "$"}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#investor_member_id#", "amount": 500000.00}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"member_id": "#investor_member_id#", "amount": 499999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$..code": 1, "$..msg": "用户id为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{"$..code": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, "$..msg": "余额为空"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"member_id": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "amount": "20"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$..code": 2, "$..msg": "余额必须大于0并且小于或者等于500000"}</t>
+  </si>
+  <si>
+    <t>充值余额为500000，充值成功</t>
+  </si>
+  <si>
+    <t>充值余额为499999，充值成功</t>
+  </si>
+  <si>
+    <t>充值余额为1，充值成功</t>
+  </si>
+  <si>
+    <t>充值余额为1.12，充值成功</t>
+  </si>
+  <si>
+    <t>充值余额为499999.99，充值成功</t>
+  </si>
+  <si>
+    <t>充值余额为500000.00，充值成功</t>
+  </si>
+  <si>
+    <t>会员id为空，充值余额正确，充值失败</t>
+  </si>
+  <si>
+    <t>会员id正确，充值余额为空，充值失败</t>
+  </si>
+  <si>
+    <t>会员id正确，充值余额为负整数，充值失败</t>
+  </si>
+  <si>
+    <t>会员id正确，充值余额为负小数，充值失败</t>
+  </si>
+  <si>
+    <t>会员id正确，充值余额大于50W，充值失败</t>
+  </si>
+  <si>
+    <t>会员id正确，充值余额为0~50万之间的小数，有3位小数，充值失败</t>
+  </si>
+  <si>
+    <t>会员id正确，充值余额为非数字（字母），充值失败</t>
+  </si>
+  <si>
+    <t>会员id正确，充值余额为非数字（特殊字符），充值失败</t>
+  </si>
+  <si>
+    <t>{"$..code": 1007, "$..msg": "无权限访问，请检查参数"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$..code": 2, "$..msg": "余额必须为数值型"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1425,7 +1556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1468,9 +1599,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1483,8 +1611,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1763,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1773,7 +1923,7 @@
     <col min="2" max="2" width="9.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="30.77734375" style="12" customWidth="1"/>
     <col min="4" max="4" width="6.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="81.109375" style="5" customWidth="1"/>
     <col min="8" max="8" width="34.109375" style="5" customWidth="1"/>
@@ -1787,14 +1937,14 @@
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>350</v>
+      <c r="E1" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>4</v>
@@ -1803,7 +1953,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1820,7 +1970,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>10</v>
@@ -1846,7 +1996,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>10</v>
@@ -1872,13 +2022,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>12</v>
@@ -1892,19 +2042,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>12</v>
@@ -1918,19 +2068,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>12</v>
@@ -1944,19 +2094,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>12</v>
@@ -1970,19 +2120,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>12</v>
@@ -1996,22 +2146,22 @@
         <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2022,22 +2172,22 @@
         <v>7</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2048,22 +2198,22 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2074,25 +2224,25 @@
         <v>7</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -2100,22 +2250,22 @@
         <v>7</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2126,22 +2276,22 @@
         <v>7</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2152,22 +2302,22 @@
         <v>7</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2178,22 +2328,22 @@
         <v>7</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2204,22 +2354,22 @@
         <v>7</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2230,22 +2380,22 @@
         <v>7</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2260,16 +2410,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="36.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="45.21875" style="5" customWidth="1"/>
     <col min="6" max="6" width="45.6640625" customWidth="1"/>
     <col min="8" max="8" width="33.77734375" customWidth="1"/>
   </cols>
@@ -2288,7 +2438,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>350</v>
+        <v>199</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -2305,25 +2455,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>290</v>
+        <v>147</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>291</v>
+        <v>137</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>228</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>292</v>
+        <v>148</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2331,117 +2481,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>289</v>
+        <v>146</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>293</v>
+        <v>149</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>294</v>
+        <v>137</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>227</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>292</v>
+        <v>148</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="9"/>
+        <v>246</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2484,7 +2543,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>350</v>
+        <v>199</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -2504,19 +2563,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>317</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>318</v>
+        <v>168</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -2527,22 +2586,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>302</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>319</v>
+        <v>169</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -2553,22 +2612,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>320</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -2579,22 +2638,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="G5" t="s">
-        <v>304</v>
+        <v>154</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -2608,22 +2667,22 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>322</v>
+        <v>172</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2631,22 +2690,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>323</v>
+        <v>173</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -2657,22 +2716,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>289</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>324</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>275</v>
+        <v>137</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F8" t="s">
-        <v>325</v>
+        <v>175</v>
       </c>
       <c r="G8" t="s">
-        <v>326</v>
+        <v>176</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -2683,22 +2742,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -2709,22 +2768,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>329</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -2735,22 +2794,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>331</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c r="G11" t="s">
-        <v>332</v>
+        <v>182</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -2761,22 +2820,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>333</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>334</v>
+        <v>184</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
@@ -2787,22 +2846,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>273</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>335</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>275</v>
+        <v>137</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F13" t="s">
-        <v>276</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>336</v>
+        <v>186</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -2831,10 +2890,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2844,7 +2903,7 @@
     <col min="4" max="4" width="8" style="5" customWidth="1"/>
     <col min="5" max="5" width="29.33203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="53.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="63.33203125" style="5" customWidth="1"/>
     <col min="8" max="8" width="43" style="5" customWidth="1"/>
     <col min="9" max="16384" width="9" style="5"/>
   </cols>
@@ -2863,7 +2922,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>350</v>
+        <v>199</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>4</v>
@@ -2875,7 +2934,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2883,22 +2942,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>12</v>
@@ -2909,22 +2968,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>12</v>
@@ -2935,25 +2994,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2961,25 +3020,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>62</v>
+        <v>237</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2987,25 +3046,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -3013,25 +3072,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="12" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -3039,25 +3098,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>69</v>
+        <v>236</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="12" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -3065,25 +3124,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="12" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -3091,25 +3150,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="12" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -3117,25 +3176,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>241</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="12" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -3143,25 +3202,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>77</v>
+        <v>48</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>242</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="12" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -3169,41 +3228,26 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>79</v>
+        <v>48</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>243</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="9"/>
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3211,15 +3255,16 @@
     <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3248,7 +3293,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>350</v>
+        <v>199</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>4</v>
@@ -3260,427 +3305,398 @@
         <v>6</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>351</v>
+        <v>66</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>84</v>
+        <v>326</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>86</v>
+        <v>333</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>351</v>
+        <v>66</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>87</v>
+        <v>67</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>327</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>88</v>
+        <v>334</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>351</v>
+        <v>66</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>90</v>
+        <v>335</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>351</v>
+        <v>66</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>91</v>
+        <v>317</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>92</v>
+        <v>336</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>351</v>
+        <v>66</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>93</v>
+        <v>318</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>94</v>
+        <v>337</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>351</v>
+        <v>66</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>95</v>
+        <v>319</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>96</v>
+        <v>338</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>351</v>
+        <v>66</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>99</v>
+        <v>339</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>351</v>
+        <v>66</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>351</v>
+        <v>66</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>103</v>
+        <v>67</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>330</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>105</v>
+        <v>340</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>351</v>
+        <v>66</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>108</v>
+        <v>341</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>351</v>
+        <v>66</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>109</v>
+        <v>321</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>110</v>
+        <v>342</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>351</v>
+        <v>66</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>111</v>
+        <v>67</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>322</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>112</v>
+        <v>343</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>351</v>
+        <v>66</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>113</v>
+        <v>323</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>351</v>
+        <v>66</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>117</v>
+        <v>345</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>351</v>
+        <v>66</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>16</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="9"/>
+        <v>325</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>347</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3688,15 +3704,16 @@
     <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3724,8 +3741,8 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>350</v>
+      <c r="E1" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -3737,267 +3754,267 @@
         <v>6</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>123</v>
+        <v>71</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>351</v>
+      <c r="E2" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>125</v>
+        <v>295</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>126</v>
+        <v>71</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>351</v>
+      <c r="E3" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>127</v>
+        <v>296</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>128</v>
+        <v>71</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>351</v>
+      <c r="E4" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>129</v>
+        <v>297</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>130</v>
+        <v>71</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>351</v>
+      <c r="E5" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>131</v>
+        <v>298</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>132</v>
+        <v>71</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>351</v>
+      <c r="E6" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>133</v>
+        <v>299</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>134</v>
+        <v>71</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>351</v>
+      <c r="E7" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>136</v>
+        <v>71</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>351</v>
+      <c r="E8" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>137</v>
+        <v>301</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>138</v>
+        <v>71</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>351</v>
+      <c r="E9" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>139</v>
+        <v>73</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>302</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>351</v>
+      <c r="E10" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>351</v>
+      <c r="E11" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>145</v>
+        <v>303</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4005,159 +4022,156 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>146</v>
+        <v>71</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>351</v>
+      <c r="E12" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>149</v>
+        <v>71</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>351</v>
+      <c r="E13" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>152</v>
+        <v>71</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>351</v>
+      <c r="E14" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>155</v>
+        <v>71</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>351</v>
+      <c r="E15" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>157</v>
+        <v>71</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>351</v>
+      <c r="E16" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="69" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>160</v>
+        <v>71</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>351</v>
+      <c r="E17" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>314</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4165,15 +4179,16 @@
     <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4197,8 +4212,8 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>350</v>
+      <c r="E1" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -4215,25 +4230,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>351</v>
+      <c r="E2" s="23" t="s">
+        <v>264</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>190</v>
+        <v>98</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>265</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4241,25 +4256,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>351</v>
+      <c r="E3" s="23" t="s">
+        <v>264</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4267,25 +4282,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>351</v>
+      <c r="E4" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4293,25 +4308,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>351</v>
+      <c r="E5" s="23" t="s">
+        <v>264</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4319,25 +4334,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>351</v>
+      <c r="E6" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4345,25 +4360,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>351</v>
+      <c r="E7" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>337</v>
+        <v>104</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4371,25 +4386,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>351</v>
+      <c r="E8" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>203</v>
+        <v>270</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4397,25 +4412,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>351</v>
+      <c r="E9" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4423,25 +4438,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>208</v>
+        <v>107</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>351</v>
+      <c r="E10" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4449,25 +4464,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>351</v>
+      <c r="E11" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4475,25 +4490,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>351</v>
+      <c r="E12" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4501,25 +4516,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>351</v>
+      <c r="E13" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4527,25 +4542,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>219</v>
+        <v>111</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>351</v>
+      <c r="E14" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4553,25 +4568,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>351</v>
+      <c r="E15" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4579,25 +4594,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>223</v>
+        <v>113</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>351</v>
+      <c r="E16" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4605,25 +4620,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>351</v>
+      <c r="E17" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4631,25 +4646,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>351</v>
+      <c r="E18" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4657,25 +4672,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>351</v>
+      <c r="E19" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4683,25 +4698,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>351</v>
+      <c r="E20" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4709,25 +4724,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>237</v>
+        <v>118</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>351</v>
+      <c r="E21" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>238</v>
+        <v>98</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4735,25 +4750,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>351</v>
+      <c r="E22" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4761,25 +4776,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>242</v>
+        <v>120</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>351</v>
+      <c r="E23" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4787,25 +4802,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>244</v>
+        <v>121</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>351</v>
+      <c r="E24" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>245</v>
+        <v>98</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4813,25 +4828,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>246</v>
+        <v>122</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>351</v>
+      <c r="E25" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4839,106 +4854,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>249</v>
+        <v>123</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>351</v>
+      <c r="E26" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4952,8 +4889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4981,7 +4918,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>350</v>
+        <v>199</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>4</v>
@@ -4993,7 +4930,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>338</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -5001,28 +4938,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>342</v>
+        <v>191</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>359</v>
+      <c r="E2" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>352</v>
+        <v>201</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>353</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -5030,28 +4967,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>343</v>
+        <v>192</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>359</v>
+      <c r="E3" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>347</v>
+        <v>196</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>345</v>
+        <v>194</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>339</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -5059,28 +4996,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>344</v>
+        <v>193</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>359</v>
+      <c r="E4" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>348</v>
+        <v>197</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>345</v>
+        <v>194</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>340</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5088,28 +5025,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>360</v>
+      <c r="E5" s="19" t="s">
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>349</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>341</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5117,22 +5054,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>346</v>
+        <v>195</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>361</v>
+        <v>92</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>364</v>
+        <v>212</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>12</v>
@@ -5143,22 +5080,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>365</v>
+        <v>213</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>362</v>
+      <c r="E7" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>354</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>12</v>
@@ -5170,25 +5107,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>366</v>
+        <v>214</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>362</v>
+      <c r="E8" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>355</v>
+        <v>203</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>308</v>
+        <v>158</v>
       </c>
       <c r="I8" s="10"/>
     </row>
@@ -5197,25 +5134,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>309</v>
+        <v>156</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>159</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>362</v>
+      <c r="E9" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>356</v>
+        <v>204</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="I9" s="10"/>
     </row>
@@ -5224,25 +5161,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>311</v>
+        <v>156</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>362</v>
+      <c r="E10" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>356</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="I10" s="10"/>
     </row>
@@ -5251,25 +5188,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>312</v>
+        <v>156</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>362</v>
+      <c r="E11" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>356</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="I11" s="10"/>
     </row>
@@ -5278,25 +5215,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>313</v>
+        <v>156</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>362</v>
+      <c r="E12" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>363</v>
+        <v>211</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="I12" s="6"/>
     </row>
@@ -5305,25 +5242,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>314</v>
+        <v>164</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>362</v>
+      <c r="E13" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>357</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>315</v>
+        <v>165</v>
       </c>
       <c r="I13" s="10"/>
     </row>
@@ -5332,25 +5269,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>316</v>
+        <v>166</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>362</v>
+      <c r="E14" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>358</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>315</v>
+        <v>165</v>
       </c>
       <c r="I14" s="10"/>
     </row>
@@ -5368,8 +5305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5377,7 +5314,7 @@
     <col min="1" max="2" width="9" style="5"/>
     <col min="3" max="3" width="43.109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="9" style="5"/>
-    <col min="5" max="5" width="29.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="59.44140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="20.44140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="55" style="5" customWidth="1"/>
     <col min="8" max="8" width="51" style="5" customWidth="1"/>
@@ -5385,28 +5322,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5415,25 +5352,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>260</v>
+        <v>125</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>359</v>
+        <v>289</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>370</v>
+        <v>218</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5441,25 +5378,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>262</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>359</v>
+        <v>209</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>371</v>
+        <v>219</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5467,25 +5404,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>372</v>
+        <v>220</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>359</v>
+        <v>208</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>367</v>
+        <v>215</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5493,25 +5430,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>264</v>
+        <v>128</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>359</v>
+        <v>208</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>369</v>
+        <v>217</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5519,25 +5456,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>373</v>
+        <v>221</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>359</v>
+        <v>209</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>367</v>
+        <v>215</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5545,25 +5482,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>266</v>
+        <v>129</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>359</v>
+        <v>209</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>369</v>
+        <v>217</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5571,25 +5508,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>267</v>
+        <v>130</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>359</v>
+        <v>209</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>367</v>
+        <v>215</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5597,25 +5534,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>268</v>
+        <v>131</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>359</v>
+        <v>209</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>369</v>
+        <v>217</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5623,25 +5560,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>359</v>
+        <v>209</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>368</v>
+        <v>216</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5649,25 +5586,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>271</v>
+        <v>133</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>359</v>
+        <v>209</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>272</v>
+        <v>134</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>374</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -5682,16 +5619,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="49.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="18.21875" customWidth="1"/>
     <col min="7" max="7" width="56.44140625" customWidth="1"/>
     <col min="8" max="8" width="47.44140625" customWidth="1"/>
@@ -5711,7 +5648,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>350</v>
+        <v>199</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -5723,194 +5660,109 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>273</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>274</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>351</v>
+        <v>137</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>276</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>273</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>278</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>351</v>
+        <v>137</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>276</v>
+        <v>138</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>273</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>280</v>
+        <v>142</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>351</v>
+        <v>137</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>276</v>
+        <v>138</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>273</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>282</v>
+        <v>144</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>351</v>
+        <v>137</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>276</v>
+        <v>138</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="9"/>
+        <v>145</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>246</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5918,272 +5770,185 @@
     <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="29.33203125" style="5" customWidth="1"/>
+    <col min="1" max="2" width="9" style="24"/>
+    <col min="3" max="3" width="39.5546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9" style="24"/>
+    <col min="5" max="5" width="48.33203125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="29" style="24" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="F1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="B2" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="B3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B4" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="B5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="9"/>
+      <c r="B6" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6191,5 +5956,6 @@
     <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>